--- a/진주시 화재 발생 정보(비닐하우스).xlsx
+++ b/진주시 화재 발생 정보(비닐하우스).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37f9e787c9c213a4/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C7A1D83-B536-4C04-AD7D-8A81B14E72FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{1C7A1D83-B536-4C04-AD7D-8A81B14E72FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22AAF534-0F10-4733-B597-71746138F63C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9ED7D691-CA8D-4BD2-9155-42F5EEBF42E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
   <si>
     <t>화재발생년원일</t>
   </si>
@@ -56,30 +56,6 @@
     <t>발화요인소분류</t>
   </si>
   <si>
-    <t>인명피해(명)소계</t>
-  </si>
-  <si>
-    <t>사망</t>
-  </si>
-  <si>
-    <t>부상</t>
-  </si>
-  <si>
-    <t>재산피해소계</t>
-  </si>
-  <si>
-    <t>부동산</t>
-  </si>
-  <si>
-    <t>동산</t>
-  </si>
-  <si>
-    <t>장소대분류</t>
-  </si>
-  <si>
-    <t>장소중분류</t>
-  </si>
-  <si>
     <t>장소소분류</t>
   </si>
   <si>
@@ -96,12 +72,6 @@
   </si>
   <si>
     <t>불씨,불꽃,화원방치</t>
-  </si>
-  <si>
-    <t>주거</t>
-  </si>
-  <si>
-    <t>기타주택</t>
   </si>
   <si>
     <t>비닐하우스</t>
@@ -500,18 +470,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B7760B-4D47-4732-8781-EA9571EF916F}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="30.09765625" customWidth="1"/>
+    <col min="8" max="8" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,358 +507,166 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>44629.351388888892</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>9838</v>
-      </c>
-      <c r="K2">
-        <v>4123</v>
-      </c>
-      <c r="L2">
-        <v>5715</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>44840.707638888889</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>6560</v>
-      </c>
-      <c r="K3">
-        <v>4439</v>
-      </c>
-      <c r="L3">
-        <v>2121</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>44883.336805555555</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>394</v>
-      </c>
-      <c r="K4">
-        <v>163</v>
-      </c>
-      <c r="L4">
-        <v>231</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>44922.394444444442</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1062</v>
-      </c>
-      <c r="K5">
-        <v>237</v>
-      </c>
-      <c r="L5">
-        <v>825</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>44928.238888888889</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>4943</v>
-      </c>
-      <c r="K6">
-        <v>310</v>
-      </c>
-      <c r="L6">
-        <v>4633</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>45076.651388888888</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>2865</v>
-      </c>
-      <c r="K7">
-        <v>1404</v>
-      </c>
-      <c r="L7">
-        <v>1461</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>45194.676388888889</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>633</v>
-      </c>
-      <c r="K8">
-        <v>371</v>
-      </c>
-      <c r="L8">
-        <v>262</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
